--- a/data/info.xlsx
+++ b/data/info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12510"/>
+    <workbookView windowWidth="28200" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4602,7 +4602,7 @@
     <t xml:space="preserve">UNetbootin is a cross-platform tool to make boot disks. Linux operating system can be loaded into the USB flash drive by it. Meanwhile, the boot disks that have been made can be used for computer maintenance and system restoration and other operations. </t>
   </si>
   <si>
-    <t>virtualbox</t>
+    <t>virtualbox-qt</t>
   </si>
   <si>
     <t>VirtualBox</t>
@@ -6363,10 +6363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -6487,19 +6487,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6584,12 +6584,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="千位分隔" xfId="3" builtinId="3"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="5" builtinId="6"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -6943,24 +6943,24 @@
   <sheetPr/>
   <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.78" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.78" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.22" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="74.7185185185185" style="3" customWidth="1"/>
+    <col min="7" max="7" width="74.72" style="3" customWidth="1"/>
     <col min="8" max="8" width="66.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="1"/>
+    <col min="9" max="16384" width="8.88666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="13" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="14" s="1" customFormat="1" ht="90" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="15" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="16" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="20" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="22" s="1" customFormat="1" ht="78.75" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="23" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="24" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="75" spans="1:8">
+    <row r="25" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="26" s="1" customFormat="1" ht="78.75" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="27" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="28" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="45" spans="1:8">
+    <row r="29" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="30" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="60" spans="1:8">
+    <row r="31" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="60" spans="1:8">
+    <row r="32" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="60" spans="1:8">
+    <row r="33" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="35" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>196</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="36" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>196</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="37" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>196</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="38" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>196</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="39" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>196</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="43" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>196</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="47" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>196</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="49" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>196</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="52" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>196</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="55" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>196</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="58" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A58" s="4" t="s">
         <v>196</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="61" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A61" s="4" t="s">
         <v>196</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="62" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>196</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="65" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>196</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="66" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>196</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="67" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>196</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="68" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>196</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="69" s="1" customFormat="1" ht="90" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>196</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="70" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>196</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="72" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A72" s="4" t="s">
         <v>196</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="74" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A74" s="4" t="s">
         <v>428</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="75" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A75" s="4" t="s">
         <v>428</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="76" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A76" s="4" t="s">
         <v>428</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="77" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A77" s="4" t="s">
         <v>428</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="78" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A78" s="4" t="s">
         <v>428</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="80" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>428</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="81" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A81" s="4" t="s">
         <v>428</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="84" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A84" s="4" t="s">
         <v>428</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="86" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A86" s="4" t="s">
         <v>506</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="91" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A91" s="4" t="s">
         <v>506</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="93" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A93" s="4" t="s">
         <v>506</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="94" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A94" s="4" t="s">
         <v>506</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="95" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A95" s="4" t="s">
         <v>506</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="97" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A97" s="4" t="s">
         <v>506</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="60" spans="1:8">
+    <row r="98" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A98" s="4" t="s">
         <v>506</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="45" spans="1:8">
+    <row r="99" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A99" s="4" t="s">
         <v>506</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="60" spans="1:8">
+    <row r="100" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>506</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="101" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>592</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="102" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>592</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="105" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A105" s="4" t="s">
         <v>592</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="106" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A106" s="4" t="s">
         <v>592</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="107" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>592</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="108" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A108" s="4" t="s">
         <v>592</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="110" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A110" s="4" t="s">
         <v>592</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="112" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A112" s="4" t="s">
         <v>592</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="113" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>592</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="90" spans="1:8">
+    <row r="117" s="2" customFormat="1" ht="67.5" spans="1:8">
       <c r="A117" s="4" t="s">
         <v>592</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="54" spans="1:8">
+    <row r="118" s="2" customFormat="1" ht="40.5" spans="1:8">
       <c r="A118" s="4" t="s">
         <v>592</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="72" spans="1:8">
+    <row r="119" s="2" customFormat="1" ht="54" spans="1:8">
       <c r="A119" s="4" t="s">
         <v>592</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="38.25" spans="1:8">
+    <row r="121" s="2" customFormat="1" ht="40.5" spans="1:8">
       <c r="A121" s="4" t="s">
         <v>592</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="122" s="2" customFormat="1" ht="40.5" spans="1:8">
       <c r="A122" s="4" t="s">
         <v>592</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="54" spans="1:8">
+    <row r="123" s="2" customFormat="1" ht="40.5" spans="1:8">
       <c r="A123" s="4" t="s">
         <v>592</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="54" spans="1:8">
+    <row r="125" s="2" customFormat="1" ht="40.5" spans="1:8">
       <c r="A125" s="4" t="s">
         <v>592</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="72" spans="1:8">
+    <row r="126" s="2" customFormat="1" ht="54" spans="1:8">
       <c r="A126" s="4" t="s">
         <v>592</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="60" spans="1:8">
+    <row r="127" s="2" customFormat="1" ht="54" spans="1:8">
       <c r="A127" s="4" t="s">
         <v>592</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="128" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A128" s="4" t="s">
         <v>749</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="129" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A129" s="4" t="s">
         <v>749</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="130" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A130" s="4" t="s">
         <v>749</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="132" s="1" customFormat="1" ht="90" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>749</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="133" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A133" s="4" t="s">
         <v>749</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="134" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A134" s="4" t="s">
         <v>749</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="135" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A135" s="4" t="s">
         <v>749</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="136" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A136" s="4" t="s">
         <v>749</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="137" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>749</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="138" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A138" s="4" t="s">
         <v>749</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="139" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A139" s="4" t="s">
         <v>749</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="140" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A140" s="4" t="s">
         <v>749</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="143" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A143" s="4" t="s">
         <v>749</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="147" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A147" s="4" t="s">
         <v>749</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="149" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>749</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="150" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A150" s="4" t="s">
         <v>749</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="152" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A152" s="4" t="s">
         <v>749</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="153" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A153" s="4" t="s">
         <v>749</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="154" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A154" s="4" t="s">
         <v>749</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="155" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A155" s="4" t="s">
         <v>749</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="156" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>749</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="157" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A157" s="4" t="s">
         <v>749</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="159" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A159" s="4" t="s">
         <v>930</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="162" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A162" s="4" t="s">
         <v>930</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="166" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A166" s="4" t="s">
         <v>930</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="168" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A168" s="4" t="s">
         <v>930</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="170" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A170" s="4" t="s">
         <v>930</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="173" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A173" s="4" t="s">
         <v>930</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="175" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A175" s="4" t="s">
         <v>930</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="176" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A176" s="4" t="s">
         <v>930</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="177" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="177" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A177" s="4" t="s">
         <v>930</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="178" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A178" s="4" t="s">
         <v>930</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="181" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="181" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A181" s="4" t="s">
         <v>930</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="182" s="1" customFormat="1" ht="78.75" spans="1:8">
       <c r="A182" s="4" t="s">
         <v>930</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="183" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A183" s="4" t="s">
         <v>930</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="185" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="185" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A185" s="4" t="s">
         <v>930</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="186" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A186" s="4" t="s">
         <v>930</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="187" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A187" s="4" t="s">
         <v>930</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="188" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="188" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A188" s="4" t="s">
         <v>930</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="189" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="189" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A189" s="4" t="s">
         <v>930</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="190" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A190" s="4" t="s">
         <v>930</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="191" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="191" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A191" s="4" t="s">
         <v>930</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="60" spans="1:8">
+    <row r="192" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A192" s="4" t="s">
         <v>930</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="193" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A193" s="4" t="s">
         <v>930</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="194" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A194" s="4" t="s">
         <v>930</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="199" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="199" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A199" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="200" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="200" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A200" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="201" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="201" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A201" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="202" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="202" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A202" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="203" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="203" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A203" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="205" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="205" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A205" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="206" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="206" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A206" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="207" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="207" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A207" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="208" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="208" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A208" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="209" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="209" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A209" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="211" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A211" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="212" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A212" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="213" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="213" s="1" customFormat="1" ht="90" spans="1:8">
       <c r="A213" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="214" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="214" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A214" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="215" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="215" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A215" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="218" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="218" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A218" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="219" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="219" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A219" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="221" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="221" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A221" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="222" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="222" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A222" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="223" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="223" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A223" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="224" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="224" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A224" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="225" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="225" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A225" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="226" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="226" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A226" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="227" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="227" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A227" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="228" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="228" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A228" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="229" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="229" s="1" customFormat="1" ht="67.5" spans="1:8">
       <c r="A229" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="230" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="230" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A230" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="231" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="231" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A231" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="232" s="1" customFormat="1" ht="63.75" spans="1:8">
+    <row r="232" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A232" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="233" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="233" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A233" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="234" s="1" customFormat="1" ht="51" spans="1:8">
+    <row r="234" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A234" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="235" s="1" customFormat="1" ht="60" spans="1:8">
+    <row r="235" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A235" s="4" t="s">
         <v>1145</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="237" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="237" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A237" s="4" t="s">
         <v>1145</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="240" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="240" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A240" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="241" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="241" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A241" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="244" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="244" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A244" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="248" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="248" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A248" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="250" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="250" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A250" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="253" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="253" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A253" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="254" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="254" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A254" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="257" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="257" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A257" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="258" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="258" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A258" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="267" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="267" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A267" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="273" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="273" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A273" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="274" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="274" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A274" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="275" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A275" s="4" t="s">
         <v>1410</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="276" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="276" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A276" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="277" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="277" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A277" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="278" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="278" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A278" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="279" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="279" s="1" customFormat="1" ht="67.5" spans="1:8">
       <c r="A279" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="280" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="280" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A280" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="282" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="282" s="1" customFormat="1" ht="90" spans="1:8">
       <c r="A282" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="285" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="285" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A285" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="287" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A287" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="288" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="288" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A288" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="292" s="1" customFormat="1" ht="63.75" spans="1:8">
+    <row r="292" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A292" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="293" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="293" s="1" customFormat="1" ht="90" spans="1:8">
       <c r="A293" s="4" t="s">
         <v>1410</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="294" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="294" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A294" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="295" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A295" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="297" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="297" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A297" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="298" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="298" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="300" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="300" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A300" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="301" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="301" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A301" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="303" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="303" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A303" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="304" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="304" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A304" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="305" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="305" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A305" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="306" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="306" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A306" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="307" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A307" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="308" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="308" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A308" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="309" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="309" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A309" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="310" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="310" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A310" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="311" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="311" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A311" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="312" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="312" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A312" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="313" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="313" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A313" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="314" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="314" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A314" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="315" s="1" customFormat="1" ht="45" spans="1:8">
+    <row r="315" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A315" s="4" t="s">
         <v>1736</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="316" s="1" customFormat="1" ht="45" spans="1:8">
+    <row r="316" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A316" s="4" t="s">
         <v>1736</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="318" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="318" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A318" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="320" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="320" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A320" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="323" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="323" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A323" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="326" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="326" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A326" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="327" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="327" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A327" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="328" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="328" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A328" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="330" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="330" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A330" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="333" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="333" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A333" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="334" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="334" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A334" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="335" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="335" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A335" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="338" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="338" s="1" customFormat="1" ht="36" spans="1:8">
       <c r="A338" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="339" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="339" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A339" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="340" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="340" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A340" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="341" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="341" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A341" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="342" s="1" customFormat="1" ht="108" spans="1:8">
+    <row r="342" s="1" customFormat="1" ht="78.75" spans="1:8">
       <c r="A342" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="343" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="343" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A343" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="344" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="344" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A344" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="345" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="345" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A345" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="346" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="346" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A346" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="347" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="347" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A347" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="348" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="348" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A348" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="349" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="349" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A349" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="350" s="1" customFormat="1" ht="54" spans="1:8">
+    <row r="350" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A350" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="351" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="351" s="1" customFormat="1" ht="47.25" spans="1:8">
       <c r="A351" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="352" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="352" s="1" customFormat="1" ht="63" spans="1:8">
       <c r="A352" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="353" s="1" customFormat="1" ht="90" spans="1:8">
+    <row r="353" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A353" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="354" s="1" customFormat="1" ht="72" spans="1:8">
+    <row r="354" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A354" s="4" t="s">
         <v>1872</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="355" ht="45" spans="1:8">
+    <row r="355" ht="40.5" spans="1:8">
       <c r="A355" s="4" t="s">
         <v>1872</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="356" ht="60" spans="1:8">
+    <row r="356" ht="40.5" spans="1:8">
       <c r="A356" s="4" t="s">
         <v>1872</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="357" ht="45" spans="1:8">
+    <row r="357" ht="40.5" spans="1:8">
       <c r="A357" s="4" t="s">
         <v>1872</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="358" ht="60" spans="1:8">
+    <row r="358" ht="40.5" spans="1:8">
       <c r="A358" s="4" t="s">
         <v>1872</v>
       </c>
@@ -16116,7 +16116,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -16133,7 +16133,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/info.xlsx
+++ b/data/info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12510"/>
+    <workbookView windowWidth="28200" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$355</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$353</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117">
   <si>
     <t>软件分类</t>
   </si>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">XMind is a world leading mind map software. Besides basic logic diagram, it also supports structure chart, mind map, fishbone diagram, two-dimensional diagram and other models. XMind can display your diagram to others or export the diagram to Powerpoint and Word, fasten the exchange of complicated thoughts and information. It's widely used in enterprises and education. </t>
   </si>
   <si>
-    <t>yozo-office</t>
+    <t>yozo-office-zh-cn</t>
   </si>
   <si>
     <t>永中 Office</t>
@@ -5278,21 +5278,6 @@
     <t>RedNotebook is a journal application with functions of calendar navigation, customizable templates, export and adding tags. It supports tag cloud to manage and organize your journal, notes and so on. Meanwhile, it's characterized with searching, exporting, inserting images and links in the journal, automatic saving and other functions.</t>
   </si>
   <si>
-    <t>Dr.com</t>
-  </si>
-  <si>
-    <t>开启校园网的计费模式。</t>
-  </si>
-  <si>
-    <t>Open the billing model of campus network.</t>
-  </si>
-  <si>
-    <t>Dr.com是一款宽带认证拨号客户端，主要负责用户的认证，授权和计费，数据采集、实时控制和执行各种网络和计费策略，并将数据传送到后台进行处理，配合Dr.COM的计费软件，共同组成Dr.COM宽带计费管理平台。</t>
-  </si>
-  <si>
-    <t>Dr.com is a broadband authentication dial-up client. It's mainly responsible for user authentication, authorization and billing, data acquisition, real-time control and performing various network and billing policies. Meanwhile, it transfers data to the back-end for processing, and cooperates with Dr.COM billing software to constitute Dr.COM broadband billing management platform together.</t>
-  </si>
-  <si>
     <t>Music</t>
   </si>
   <si>
@@ -5789,27 +5774,6 @@
   </si>
   <si>
     <t>Brutal Chess is a classic 3D chess game, the rules and ways of which are the same with other chess games. You can play against the computer or a real person in it. Beautifully designed 3D images and the clever fusion of intelligence strategy and technology will bring you vivid visual enjoyment.</t>
-  </si>
-  <si>
-    <t>deepin-game-center</t>
-  </si>
-  <si>
-    <t>深度游戏</t>
-  </si>
-  <si>
-    <t>Deepin Game</t>
-  </si>
-  <si>
-    <t>你的游戏大本营。</t>
-  </si>
-  <si>
-    <t>Your game headquarters.</t>
-  </si>
-  <si>
-    <t>深度游戏是深度科技团队为广大Linux用户量身打造的一款游戏分享平台。它不仅只是一个游戏客户端，更是一个集成了社交功能的游戏分享平台。在这里您可以找到最好玩的游戏，也可以与朋友分享您最喜爱的游戏。</t>
-  </si>
-  <si>
-    <t>Deepin Game a game sharing platform designed by deepin technology team. specially for the majority of Linux users. It is not just a game client, but also a game sharing platform with social network function integrated. Here you can find the most fun game and share favorite games with your friends.</t>
   </si>
   <si>
     <t>fceux</t>
@@ -6442,10 +6406,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -6525,19 +6489,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6598,12 +6562,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="千位分隔" xfId="3" builtinId="3"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="5" builtinId="6"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -6954,26 +6918,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H355"/>
+  <sheetPr/>
+  <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H144" sqref="H144"/>
+      <selection pane="bottomLeft" activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1133333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.22" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="111.444444444444" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1133333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="111.446666666667" style="1" customWidth="1"/>
+    <col min="9" max="16382" width="8.88666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
@@ -10070,9 +10034,7 @@
       <c r="A121" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>720</v>
-      </c>
+      <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
         <v>720</v>
       </c>
@@ -10096,9 +10058,7 @@
       <c r="A122" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>726</v>
-      </c>
+      <c r="B122" s="4"/>
       <c r="C122" s="4" t="s">
         <v>726</v>
       </c>
@@ -14432,375 +14392,375 @@
     </row>
     <row r="291" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A291" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B291" s="3"/>
+        <v>1743</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>1744</v>
+      </c>
       <c r="C291" s="3" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F291" s="6" t="s">
         <v>1745</v>
       </c>
+      <c r="E291" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>1747</v>
+      </c>
       <c r="G291" s="3" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="292" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A292" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="H292" s="3" t="s">
         <v>1754</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="293" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A293" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="H293" s="5" t="s">
         <v>1760</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="294" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A294" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="295" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A295" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H295" s="3" t="s">
         <v>1772</v>
+      </c>
+      <c r="H295" s="5" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="296" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A296" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="H296" s="5" t="s">
         <v>1778</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="297" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A297" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="298" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A298" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="H298" s="3" t="s">
         <v>1791</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="299" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A299" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="H299" s="5" t="s">
         <v>1797</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="300" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A300" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>1802</v>
-      </c>
-      <c r="H300" s="3" t="s">
         <v>1803</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="301" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A301" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="302" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A302" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="303" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A303" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="304" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A304" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="305" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A305" s="3" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>1828</v>
-      </c>
+        <v>1743</v>
+      </c>
+      <c r="B305" s="3"/>
       <c r="C305" s="3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>1830</v>
@@ -14820,89 +14780,89 @@
     </row>
     <row r="306" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A306" s="3" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B306" s="3"/>
+        <v>1743</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1835</v>
+      </c>
       <c r="C306" s="3" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="307" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A307" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="308" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A308" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="309" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A309" s="3" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>1854</v>
-      </c>
+        <v>1743</v>
+      </c>
+      <c r="B309" s="3"/>
       <c r="C309" s="3" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>1856</v>
@@ -14922,7 +14882,7 @@
     </row>
     <row r="310" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A310" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3" t="s">
@@ -14946,320 +14906,322 @@
     </row>
     <row r="311" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A311" s="3" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B311" s="3"/>
+        <v>1743</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>1866</v>
+      </c>
       <c r="C311" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F311" s="3" t="s">
         <v>1868</v>
       </c>
+      <c r="F311" s="9" t="s">
+        <v>1869</v>
+      </c>
       <c r="G311" s="3" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="312" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A312" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="313" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A313" s="3" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="E313" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="F313" s="9" t="s">
+      <c r="E313" s="6" t="s">
         <v>1880</v>
       </c>
+      <c r="F313" s="6" t="s">
+        <v>1881</v>
+      </c>
       <c r="G313" s="3" t="s">
-        <v>1881</v>
-      </c>
-      <c r="H313" s="5" t="s">
         <v>1882</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="314" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A314" s="3" t="s">
-        <v>1748</v>
+        <v>1884</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E314" s="6" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F314" s="6" t="s">
         <v>1886</v>
       </c>
+      <c r="E314" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>1888</v>
+      </c>
       <c r="G314" s="3" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="315" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A315" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="316" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A316" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H316" s="3" t="s">
         <v>1901</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="317" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A317" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>1906</v>
-      </c>
-      <c r="H317" s="5" t="s">
         <v>1907</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="318" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A318" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H318" s="3" t="s">
         <v>1913</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="319" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A319" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="320" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A320" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>1925</v>
-      </c>
-      <c r="H320" s="5" t="s">
         <v>1926</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="321" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A321" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>1928</v>
       </c>
       <c r="D321" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E321" s="3" t="s">
         <v>1929</v>
       </c>
-      <c r="E321" s="3" t="s">
+      <c r="F321" s="3" t="s">
         <v>1930</v>
       </c>
-      <c r="F321" s="3" t="s">
+      <c r="G321" s="3" t="s">
         <v>1931</v>
       </c>
-      <c r="G321" s="3" t="s">
+      <c r="H321" s="5" t="s">
         <v>1932</v>
-      </c>
-      <c r="H321" s="3" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="322" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A322" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>1934</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D322" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E322" s="3" t="s">
         <v>1935</v>
       </c>
-      <c r="D322" s="3" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E322" s="3" t="s">
+      <c r="F322" s="3" t="s">
         <v>1936</v>
       </c>
-      <c r="F322" s="3" t="s">
+      <c r="G322" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="G322" s="3" t="s">
+      <c r="H322" s="5" t="s">
         <v>1938</v>
-      </c>
-      <c r="H322" s="3" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="323" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A323" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>1940</v>
@@ -15282,7 +15244,7 @@
     </row>
     <row r="324" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A324" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>1945</v>
@@ -15302,13 +15264,13 @@
       <c r="G324" s="3" t="s">
         <v>1949</v>
       </c>
-      <c r="H324" s="5" t="s">
+      <c r="H324" s="3" t="s">
         <v>1950</v>
       </c>
     </row>
     <row r="325" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A325" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>1951</v>
@@ -15334,7 +15296,7 @@
     </row>
     <row r="326" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A326" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>1957</v>
@@ -15360,7 +15322,7 @@
     </row>
     <row r="327" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A327" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>1963</v>
@@ -15380,13 +15342,13 @@
       <c r="G327" s="3" t="s">
         <v>1967</v>
       </c>
-      <c r="H327" s="5" t="s">
+      <c r="H327" s="3" t="s">
         <v>1968</v>
       </c>
     </row>
     <row r="328" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A328" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>1969</v>
@@ -15406,13 +15368,13 @@
       <c r="G328" s="3" t="s">
         <v>1973</v>
       </c>
-      <c r="H328" s="3" t="s">
+      <c r="H328" s="5" t="s">
         <v>1974</v>
       </c>
     </row>
     <row r="329" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A329" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>1975</v>
@@ -15421,108 +15383,108 @@
         <v>1976</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="330" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A330" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H330" s="5" t="s">
         <v>1986</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="331" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A331" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="332" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A332" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="333" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A333" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>2002</v>
@@ -15536,13 +15498,13 @@
       <c r="G333" s="3" t="s">
         <v>2005</v>
       </c>
-      <c r="H333" s="3" t="s">
+      <c r="H333" s="5" t="s">
         <v>2006</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A334" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>2007</v>
@@ -15562,45 +15524,43 @@
       <c r="G334" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="H334" s="3" t="s">
+      <c r="H334" s="5" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A335" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B335" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="D335" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E335" s="3" t="s">
         <v>2014</v>
       </c>
-      <c r="D335" s="3" t="s">
-        <v>2014</v>
-      </c>
-      <c r="E335" s="3" t="s">
+      <c r="F335" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="G335" s="3" t="s">
         <v>2016</v>
       </c>
-      <c r="G335" s="3" t="s">
+      <c r="H335" s="5" t="s">
         <v>2017</v>
-      </c>
-      <c r="H335" s="5" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="336" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A336" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>2019</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>2020</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>2020</v>
@@ -15620,7 +15580,7 @@
     </row>
     <row r="337" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A337" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B337" s="3"/>
       <c r="C337" s="3" t="s">
@@ -15644,251 +15604,253 @@
     </row>
     <row r="338" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A338" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B338" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3" t="s">
         <v>2030</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="D338" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E338" s="3" t="s">
         <v>2031</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="F338" s="3" t="s">
         <v>2032</v>
       </c>
-      <c r="E338" s="3" t="s">
+      <c r="G338" s="3" t="s">
         <v>2033</v>
       </c>
-      <c r="F338" s="3" t="s">
+      <c r="H338" s="5" t="s">
         <v>2034</v>
-      </c>
-      <c r="G338" s="3" t="s">
-        <v>2035</v>
-      </c>
-      <c r="H338" s="5" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="339" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A339" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B339" s="3"/>
       <c r="C339" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F339" s="3" t="s">
         <v>2037</v>
       </c>
-      <c r="D339" s="3" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E339" s="3" t="s">
+      <c r="G339" s="3" t="s">
         <v>2038</v>
       </c>
-      <c r="F339" s="3" t="s">
+      <c r="H339" s="5" t="s">
         <v>2039</v>
-      </c>
-      <c r="G339" s="3" t="s">
-        <v>2040</v>
-      </c>
-      <c r="H339" s="5" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="340" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A340" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B340" s="3"/>
       <c r="C340" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F340" s="3" t="s">
         <v>2042</v>
       </c>
-      <c r="D340" s="3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="E340" s="3" t="s">
+      <c r="G340" s="3" t="s">
         <v>2043</v>
       </c>
-      <c r="F340" s="3" t="s">
+      <c r="H340" s="5" t="s">
         <v>2044</v>
-      </c>
-      <c r="G340" s="3" t="s">
-        <v>2045</v>
-      </c>
-      <c r="H340" s="5" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="341" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A341" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B341" s="3"/>
       <c r="C341" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F341" s="3" t="s">
         <v>2047</v>
       </c>
-      <c r="D341" s="3" t="s">
-        <v>2047</v>
-      </c>
-      <c r="E341" s="3" t="s">
+      <c r="G341" s="3" t="s">
         <v>2048</v>
       </c>
-      <c r="F341" s="3" t="s">
+      <c r="H341" s="5" t="s">
         <v>2049</v>
-      </c>
-      <c r="G341" s="3" t="s">
-        <v>2050</v>
-      </c>
-      <c r="H341" s="5" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="342" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A342" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B342" s="3"/>
       <c r="C342" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F342" s="3" t="s">
         <v>2052</v>
       </c>
-      <c r="D342" s="3" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E342" s="3" t="s">
+      <c r="G342" s="3" t="s">
         <v>2053</v>
       </c>
-      <c r="F342" s="3" t="s">
+      <c r="H342" s="5" t="s">
         <v>2054</v>
-      </c>
-      <c r="G342" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="H342" s="5" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="343" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A343" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B343" s="3"/>
       <c r="C343" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F343" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="D343" s="3" t="s">
-        <v>2057</v>
-      </c>
-      <c r="E343" s="3" t="s">
+      <c r="G343" s="3" t="s">
         <v>2058</v>
       </c>
-      <c r="F343" s="3" t="s">
+      <c r="H343" s="5" t="s">
         <v>2059</v>
-      </c>
-      <c r="G343" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="H343" s="5" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A344" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B344" s="3"/>
       <c r="C344" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F344" s="3" t="s">
         <v>2062</v>
       </c>
-      <c r="D344" s="3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E344" s="3" t="s">
+      <c r="G344" s="3" t="s">
         <v>2063</v>
       </c>
-      <c r="F344" s="3" t="s">
+      <c r="H344" s="5" t="s">
         <v>2064</v>
-      </c>
-      <c r="G344" s="3" t="s">
-        <v>2065</v>
-      </c>
-      <c r="H344" s="5" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A345" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B345" s="3"/>
       <c r="C345" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F345" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="D345" s="3" t="s">
-        <v>2067</v>
-      </c>
-      <c r="E345" s="3" t="s">
+      <c r="G345" s="3" t="s">
         <v>2068</v>
       </c>
-      <c r="F345" s="3" t="s">
+      <c r="H345" s="5" t="s">
         <v>2069</v>
-      </c>
-      <c r="G345" s="3" t="s">
-        <v>2070</v>
-      </c>
-      <c r="H345" s="5" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="346" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A346" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B346" s="3"/>
       <c r="C346" s="3" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F346" s="3" t="s">
         <v>2072</v>
       </c>
-      <c r="D346" s="3" t="s">
-        <v>2072</v>
-      </c>
-      <c r="E346" s="3" t="s">
+      <c r="G346" s="3" t="s">
         <v>2073</v>
       </c>
-      <c r="F346" s="3" t="s">
+      <c r="H346" s="5" t="s">
         <v>2074</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>2075</v>
-      </c>
-      <c r="H346" s="5" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="347" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A347" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B347" s="3"/>
+        <v>1884</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>2075</v>
+      </c>
       <c r="C347" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E347" s="3" t="s">
         <v>2077</v>
       </c>
-      <c r="D347" s="3" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E347" s="3" t="s">
+      <c r="F347" s="3" t="s">
         <v>2078</v>
       </c>
-      <c r="F347" s="3" t="s">
+      <c r="G347" s="3" t="s">
         <v>2079</v>
       </c>
-      <c r="G347" s="3" t="s">
+      <c r="H347" s="5" t="s">
         <v>2080</v>
-      </c>
-      <c r="H347" s="5" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="348" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A348" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B348" s="3"/>
+        <v>1884</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>2081</v>
+      </c>
       <c r="C348" s="3" t="s">
         <v>2082</v>
       </c>
@@ -15904,13 +15866,13 @@
       <c r="G348" s="3" t="s">
         <v>2085</v>
       </c>
-      <c r="H348" s="5" t="s">
+      <c r="H348" s="3" t="s">
         <v>2086</v>
       </c>
     </row>
     <row r="349" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A349" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>2087</v>
@@ -15921,106 +15883,106 @@
       <c r="D349" s="3" t="s">
         <v>2088</v>
       </c>
-      <c r="E349" s="3" t="s">
+      <c r="E349" s="6" t="s">
         <v>2089</v>
       </c>
-      <c r="F349" s="3" t="s">
+      <c r="F349" s="6" t="s">
         <v>2090</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>2091</v>
       </c>
-      <c r="H349" s="5" t="s">
+      <c r="H349" s="3" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="350" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
+    <row r="350" ht="50" customHeight="1" spans="1:8">
       <c r="A350" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>2093</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2048</v>
+      </c>
+      <c r="E350" s="3" t="s">
         <v>2094</v>
       </c>
-      <c r="D350" s="3" t="s">
-        <v>2094</v>
-      </c>
-      <c r="E350" s="3" t="s">
+      <c r="F350" s="9" t="s">
         <v>2095</v>
       </c>
-      <c r="F350" s="3" t="s">
+      <c r="G350" s="3" t="s">
         <v>2096</v>
       </c>
-      <c r="G350" s="3" t="s">
+      <c r="H350" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="H350" s="3" t="s">
+    </row>
+    <row r="351" ht="50" customHeight="1" spans="1:8">
+      <c r="A351" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="351" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
-      <c r="A351" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B351" s="3" t="s">
+      <c r="C351" s="17" t="s">
         <v>2099</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>2100</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>2100</v>
       </c>
-      <c r="E351" s="6" t="s">
+      <c r="E351" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="F351" s="6" t="s">
+      <c r="F351" s="9" t="s">
         <v>2102</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>2103</v>
       </c>
-      <c r="H351" s="3" t="s">
+      <c r="H351" s="5" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="352" ht="50" customHeight="1" spans="1:8">
       <c r="A352" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>2105</v>
       </c>
-      <c r="C352" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D352" s="3">
-        <v>2048</v>
+      <c r="C352" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>2106</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="F352" s="9" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="H352" s="5" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="353" ht="50" customHeight="1" spans="1:8">
       <c r="A353" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>2110</v>
-      </c>
-      <c r="C353" s="17" t="s">
         <v>2111</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>2112</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>2112</v>
@@ -16038,77 +16000,19 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="354" ht="50" customHeight="1" spans="1:8">
-      <c r="A354" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E354" s="3" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F354" s="9" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G354" s="3" t="s">
-        <v>2121</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="355" ht="50" customHeight="1" spans="1:8">
-      <c r="A355" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>2123</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E355" s="3" t="s">
-        <v>2125</v>
-      </c>
-      <c r="F355" s="9" t="s">
-        <v>2126</v>
-      </c>
-      <c r="G355" s="3" t="s">
-        <v>2127</v>
-      </c>
-      <c r="H355" s="5" t="s">
-        <v>2128</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:G355">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H353"/>
   <sortState caseSensitive="0" columnSort="0" ref="A273:H308">
     <sortCondition descending="0" ref="B273:B308"/>
   </sortState>
-  <conditionalFormatting sqref="B356:B1048564">
+  <conditionalFormatting sqref="B354:B1048562">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND(COUNTIF($B:$B,B356)&gt;1,NOT(ISBLANK(B356)))</formula>
+      <formula>AND(COUNTIF($B:$B,B354)&gt;1,NOT(ISBLANK(B354)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND(COUNTIF($1:$65525,D25)&gt;1,NOT(ISBLANK(D25)))</formula>
+      <formula>AND(COUNTIF($1:$65523,D25)&gt;1,NOT(ISBLANK(D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -16126,7 +16030,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -16143,7 +16047,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
